--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5316,49 +5316,45 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5368,47 +5364,47 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>06855696C53B152D1717D3DE86140AD1</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>06855696C53B152D1717D3DE86140AD1</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5428,15 +5424,19 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3CA6C46411C695A1710CEFD2499C1735</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5451,24 +5451,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3CA6C46411C695A1710CEFD2499C1735</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5488,35 +5484,39 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>3FF2D22819B3330B814BC9017012393F</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+          <t>3FF2D22819B3330B814BC9017012393F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -5524,7 +5524,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5544,19 +5544,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5571,20 +5567,24 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5604,14 +5604,10 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5636,7 +5632,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5648,7 +5644,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5668,15 +5664,19 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5691,24 +5691,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5723,20 +5719,24 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5756,14 +5756,10 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5788,7 +5784,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5800,7 +5796,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5820,15 +5816,19 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5843,24 +5843,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5875,20 +5871,24 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5908,14 +5908,10 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>5D79082732416772252230E1D5490EFA</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5935,12 +5931,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5952,7 +5948,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5972,15 +5968,19 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6008,7 +6008,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6028,14 +6028,10 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6060,7 +6056,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6072,7 +6068,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6092,15 +6088,19 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6115,19 +6115,15 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6147,12 +6143,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6179,12 +6175,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6196,7 +6192,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6216,15 +6212,19 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>916E2681C0054750A9E687574A0B6489</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6239,19 +6239,15 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6271,12 +6267,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6288,7 +6284,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6308,15 +6304,19 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6331,75 +6331,103 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>Análise para regularização</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>ROSELI NUNES</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Guilherme</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
@@ -6666,13 +6694,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCC740B-268C-4E5A-93C5-77071D43BE72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DDBAA5-378C-4FAF-8322-6F91C2B7F5F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91105BC6-E64E-44D1-9FA4-E4A63D0E084A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{415540A6-EC10-4627-A2B6-BDF54371C22F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B5849-009B-4D12-80A7-562A9012AFCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC633F53-CCBF-48AE-B5E9-BE3F8B821E22}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5344,7 +5344,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5364,29 +5364,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5396,10 +5392,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>06855696C53B152D1717D3DE86140AD1</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5441,22 +5441,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3CA6C46411C695A1710CEFD2499C1735</t>
+          <t>06855696C53B152D1717D3DE86140AD1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -5479,12 +5479,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5501,22 +5501,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>3FF2D22819B3330B814BC9017012393F</t>
+          <t>078361EC3D7AF904BAF708191384988D</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -5524,127 +5524,127 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3CA6C46411C695A1710CEFD2499C1735</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3FF2D22819B3330B814BC9017012393F</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5659,24 +5659,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5691,20 +5687,24 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5719,24 +5719,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5751,15 +5747,19 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr"/>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5779,12 +5779,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5796,7 +5796,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5811,24 +5811,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5843,20 +5839,24 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5871,19 +5871,15 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5903,12 +5899,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5931,12 +5927,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5963,12 +5959,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5995,12 +5991,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -6008,7 +6004,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6023,20 +6019,24 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6051,24 +6051,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6083,24 +6079,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>5D79082732416772252230E1D5490EFA</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6115,15 +6107,19 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6143,12 +6139,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6160,7 +6156,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6175,24 +6171,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6207,24 +6199,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6239,15 +6227,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6267,12 +6259,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6284,7 +6276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6299,24 +6291,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6331,20 +6319,24 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6359,75 +6351,403 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
+          <t>14C5879842FBF191CCE378771DE20033</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Vilmar</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>916E2681C0054750A9E687574A0B6489</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Rosali</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Rosali</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Peterson</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Peterson</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>442B26EF13747F874BF2278DB7F83C69 (1)</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Debora</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Análise para regularização</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>ROSELI NUNES</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Guilherme</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
         <is>
           <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
@@ -6694,13 +7014,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DDBAA5-378C-4FAF-8322-6F91C2B7F5F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDE711E7-5D53-4311-9A45-507E65D1DEE9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{415540A6-EC10-4627-A2B6-BDF54371C22F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132353CF-B322-4BC1-9CC1-83A9EECA4D96}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC633F53-CCBF-48AE-B5E9-BE3F8B821E22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{124A8106-FBEE-4C72-9E01-B9E22770934A}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5599,12 +5599,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5621,22 +5621,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3FF2D22819B3330B814BC9017012393F</t>
+          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -5644,62 +5644,62 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3FF2D22819B3330B814BC9017012393F</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -5747,12 +5747,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5764,7 +5764,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5784,19 +5784,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5816,10 +5812,14 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>069ACF289074156352A4781DFCD0D264</t>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -5884,7 +5884,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5899,20 +5899,24 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5927,24 +5931,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5964,19 +5964,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5996,10 +5992,14 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6019,12 +6019,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -6064,7 +6064,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6079,20 +6079,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6107,24 +6111,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6139,24 +6139,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>5D79082732416772252230E1D5490EFA</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6171,15 +6167,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -6227,12 +6227,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>6B45729139C2A27BC5092915C751010D</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -6304,7 +6304,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6319,24 +6319,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6351,15 +6347,19 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+          <t>912B181376702376839E92A34234AB6F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -6559,12 +6559,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>916E2681C0054750A9E687574A0B6489</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>442B26EF13747F874BF2278DB7F83C69 (1)</t>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -6619,12 +6619,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6651,12 +6651,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6696,27 +6696,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -6729,25 +6729,173 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Debora</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Solicitação de documentação complementar</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ANDER RODOLFO HENRIQUE</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIAMANTE DO OESTE</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Debora</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Análise para regularização</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>ROSELI NUNES</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Guilherme</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
@@ -7014,13 +7162,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDE711E7-5D53-4311-9A45-507E65D1DEE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD1FA71-779A-42B1-9D48-868C672EB503}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132353CF-B322-4BC1-9CC1-83A9EECA4D96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1787D26-5A20-4A41-A610-BF9B7C5B403A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{124A8106-FBEE-4C72-9E01-B9E22770934A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10D7129-C54A-41F9-BBCB-7E875EDE3D4D}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -7162,13 +7162,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD1FA71-779A-42B1-9D48-868C672EB503}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A033979-C847-4968-A851-DEFDBC830CDC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1787D26-5A20-4A41-A610-BF9B7C5B403A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FFE7DC-AFAD-4A68-83F0-672C41F45590}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10D7129-C54A-41F9-BBCB-7E875EDE3D4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CF64AA-393D-4989-8EE8-8644FF84947A}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -7162,13 +7162,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A033979-C847-4968-A851-DEFDBC830CDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4255DC-4402-4D6D-8719-88EF016DC191}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FFE7DC-AFAD-4A68-83F0-672C41F45590}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5962B8-0609-4E59-BFEF-071EB762CD4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CF64AA-393D-4989-8EE8-8644FF84947A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6079BD-062B-49F0-9649-4F0F40613B6C}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -7162,13 +7162,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4255DC-4402-4D6D-8719-88EF016DC191}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{678C95FE-316B-415C-B0DD-943B4AA7ADD5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5962B8-0609-4E59-BFEF-071EB762CD4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4329B09-26B6-4E3F-B700-46C85CE4FB2A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6079BD-062B-49F0-9649-4F0F40613B6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3CEBA3-097E-4730-8EF3-48D1CF6F309B}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,42 @@
           <t>Objetivo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Segundo Relatório</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Regularização</t>
+          <t>3FF2D22819B3330B814BC9017012393F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -505,1367 +511,1514 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>06855696C53B152D1717D3DE86140AD1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>3CA6C46411C695A1710CEFD2499C1735</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>078361EC3D7AF904BAF708191384988D</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>916E2681C0054750A9E687574A0B6489</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>6B45729139C2A27BC5092915C751010D</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>5D79082732416772252230E1D5490EFA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1877,27 +2030,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1909,27 +2067,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1941,27 +2104,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1973,27 +2141,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2005,27 +2178,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2215,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2069,27 +2252,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2101,27 +2289,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2133,27 +2326,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2165,27 +2363,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2197,27 +2400,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2229,27 +2437,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2261,27 +2474,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2293,27 +2511,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2325,27 +2548,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2357,27 +2585,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2389,27 +2622,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2421,27 +2659,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2453,27 +2696,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2485,27 +2733,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2517,27 +2770,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2549,27 +2807,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2581,27 +2844,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2613,27 +2881,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2918,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2677,27 +2955,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2709,27 +2992,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2741,27 +3029,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2773,27 +3066,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2805,27 +3103,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2837,603 +3140,682 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>70A9ADEC12B287873D1AD48D0C547221</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Titulação</t>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3445,27 +3827,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3477,27 +3864,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3509,27 +3901,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3541,27 +3938,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3573,27 +3975,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3605,27 +4012,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3637,27 +4049,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3669,27 +4086,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3701,27 +4123,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3733,27 +4160,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3765,27 +4197,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3797,27 +4234,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3829,27 +4271,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3861,27 +4308,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3893,27 +4345,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3925,27 +4382,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3957,27 +4419,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3989,27 +4456,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4021,27 +4493,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4053,27 +4530,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4085,27 +4567,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4117,27 +4604,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4149,27 +4641,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4181,27 +4678,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4213,27 +4715,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4245,27 +4752,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4277,27 +4789,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4309,27 +4826,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4341,27 +4863,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4373,27 +4900,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4937,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4437,27 +4974,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4469,27 +5011,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4501,27 +5048,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4533,27 +5085,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4565,27 +5122,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4597,27 +5159,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4629,27 +5196,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4661,27 +5233,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4693,27 +5270,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4725,27 +5307,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4757,27 +5344,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4789,27 +5381,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CEB80B59A443673B14CFDA604C151E3F</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4821,27 +5418,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4853,27 +5455,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4885,27 +5492,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4917,27 +5529,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4949,27 +5566,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4981,27 +5603,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5013,1171 +5640,1438 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
+          <t>0E61191DDCB2E017A4BF5B25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>06855696C53B152D1717D3DE86140AD1</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>078361EC3D7AF904BAF708191384988D</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3CA6C46411C695A1710CEFD2499C1735</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
+          <t>DC98DD629486BBE60096FD8F</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>3FF2D22819B3330B814BC9017012393F</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>069ACF289074156352A4781DFCD0D264</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
+          <t>C573D9CB02AD42FB2BA99478</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -6189,25 +7083,34 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6217,687 +7120,846 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>6B45729139C2A27BC5092915C751010D</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>NANCI</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>REGINA</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>ROMILDA</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>TAILSA</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -7162,13 +8224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{678C95FE-316B-415C-B0DD-943B4AA7ADD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D18F64C-4757-44AB-8847-EF64FEEDFCB0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4329B09-26B6-4E3F-B700-46C85CE4FB2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5FF523-2A6F-425C-84D7-F463D1A63605}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3CEBA3-097E-4730-8EF3-48D1CF6F309B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7242CF-6FBE-4DA6-82F8-6F25A1228675}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8224,13 +8224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D18F64C-4757-44AB-8847-EF64FEEDFCB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7166A4C7-4608-4D95-B91C-4BE5B2325BD8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5FF523-2A6F-425C-84D7-F463D1A63605}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C56D5392-BEAE-447A-B4C6-101D65290AC1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7242CF-6FBE-4DA6-82F8-6F25A1228675}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87F9134-F026-4B47-BF13-58BF8410F2BC}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
+          <t>B3EE9D5D76BD409C47B284B0C6BC8CB7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -554,12 +554,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>06855696C53B152D1717D3DE86140AD1</t>
+          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -587,12 +587,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3CA6C46411C695A1710CEFD2499C1735</t>
+          <t>06855696C53B152D1717D3DE86140AD1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -620,12 +620,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
+          <t>3CA6C46411C695A1710CEFD2499C1735</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -653,12 +653,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>078361EC3D7AF904BAF708191384988D</t>
+          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -671,34 +671,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>ACOPAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>BOA VENTURA DE SAO ROQUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>078361EC3D7AF904BAF708191384988D</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>Não</t>
@@ -708,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -728,10 +724,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Não</t>
@@ -741,7 +741,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -756,19 +756,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Não</t>
@@ -778,7 +774,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -798,10 +794,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>069ACF289074156352A4781DFCD0D264</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Não</t>
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -826,19 +826,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>Não</t>
@@ -848,7 +844,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -868,10 +864,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Não</t>
@@ -881,7 +881,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,19 +896,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>Não</t>
@@ -918,7 +914,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -938,7 +934,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -955,7 +951,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -975,7 +971,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -985,14 +981,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1012,20 +1008,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1040,19 +1040,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1062,7 +1058,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1082,10 +1078,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1095,7 +1095,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1110,19 +1110,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1132,7 +1128,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1152,7 +1148,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1169,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1199,14 +1195,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1226,20 +1222,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1254,19 +1254,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1276,7 +1272,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1296,10 +1292,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>916E2681C0054750A9E687574A0B6489</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1309,7 +1309,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1324,19 +1324,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1346,7 +1342,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1361,12 +1357,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1383,7 +1379,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1403,7 +1399,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1420,7 +1416,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1440,7 +1436,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6B45729139C2A27BC5092915C751010D</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1450,14 +1446,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1477,20 +1473,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>6B45729139C2A27BC5092915C751010D</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1505,19 +1505,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1527,7 +1523,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,10 +1543,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1560,7 +1560,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1575,19 +1575,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1597,7 +1593,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1617,7 +1613,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>5D79082732416772252230E1D5490EFA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1649,12 +1645,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1671,7 +1667,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1691,10 +1687,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1704,7 +1704,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1719,19 +1719,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1741,7 +1737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1761,10 +1757,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1774,7 +1774,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1811,7 +1811,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+          <t>4B510245B4216AB5086C563FB12FB142</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,14 +1841,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1863,19 +1863,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1885,7 +1881,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1900,12 +1896,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1922,7 +1918,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1937,12 +1933,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1952,14 +1948,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1979,10 +1975,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1992,7 +1992,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2007,15 +2007,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2025,71 +2029,67 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2099,34 +2099,30 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2151,12 +2147,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2188,12 +2184,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2225,12 +2221,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2262,12 +2258,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2299,12 +2295,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2336,12 +2332,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2373,12 +2369,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2410,12 +2406,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2447,12 +2443,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2484,12 +2480,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2521,12 +2517,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2558,12 +2554,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2595,12 +2591,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2632,12 +2628,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2669,12 +2665,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2706,12 +2702,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2743,12 +2739,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2780,12 +2776,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2817,12 +2813,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2854,12 +2850,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2891,12 +2887,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2928,12 +2924,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2965,12 +2961,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3002,12 +2998,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3039,12 +3035,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3076,12 +3072,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3113,12 +3109,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3150,12 +3146,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3172,32 +3168,32 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3209,30 +3205,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3242,32 +3242,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3284,22 +3284,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3316,34 +3316,30 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3353,7 +3349,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3368,12 +3364,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3405,12 +3401,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3427,7 +3423,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3442,12 +3438,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3457,7 +3453,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3475,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3501,7 +3497,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3516,12 +3512,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3553,12 +3549,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3575,27 +3571,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3605,7 +3601,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3617,22 +3613,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3649,30 +3645,34 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3719,12 +3719,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3734,15 +3734,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3757,7 +3761,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3767,12 +3771,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>70A9ADEC12B287873D1AD48D0C547221</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3804,12 +3808,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -3822,32 +3826,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3859,34 +3863,30 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3896,32 +3896,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3933,34 +3933,30 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3985,12 +3981,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4022,12 +4018,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4059,12 +4055,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4096,12 +4092,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4133,12 +4129,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4170,12 +4166,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4207,12 +4203,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4244,12 +4240,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4281,12 +4277,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4318,12 +4314,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4355,12 +4351,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4392,12 +4388,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4429,12 +4425,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4466,12 +4462,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4503,12 +4499,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4540,12 +4536,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4577,12 +4573,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4614,12 +4610,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4651,12 +4647,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4688,12 +4684,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4725,12 +4721,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4762,12 +4758,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4799,12 +4795,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4836,12 +4832,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4873,12 +4869,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4910,12 +4906,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4947,12 +4943,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4984,12 +4980,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5021,12 +5017,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5058,12 +5054,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5095,12 +5091,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5132,12 +5128,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5169,12 +5165,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5206,12 +5202,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5243,12 +5239,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5280,12 +5276,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5317,12 +5313,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5354,12 +5350,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5391,12 +5387,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5428,12 +5424,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5465,12 +5461,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5502,12 +5498,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5539,12 +5535,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5576,12 +5572,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5613,12 +5609,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5650,12 +5646,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5687,12 +5683,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5724,12 +5720,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5761,12 +5757,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5798,12 +5794,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5835,12 +5831,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5872,12 +5868,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5909,12 +5905,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5946,12 +5942,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5983,12 +5979,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6020,12 +6016,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6057,12 +6053,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6094,12 +6090,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6131,12 +6127,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6168,12 +6164,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6205,12 +6201,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6242,12 +6238,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6279,12 +6275,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6316,12 +6312,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6353,12 +6349,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6390,12 +6386,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6427,12 +6423,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6464,12 +6460,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6501,12 +6497,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6538,12 +6534,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6575,12 +6571,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6612,12 +6608,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6649,12 +6645,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6686,12 +6682,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6723,12 +6719,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6760,12 +6756,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6797,12 +6793,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6834,12 +6830,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6871,12 +6867,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6908,12 +6904,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6945,12 +6941,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6982,12 +6978,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7019,12 +7015,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7056,12 +7052,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7078,32 +7074,32 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7115,32 +7111,32 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7157,22 +7153,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7194,22 +7190,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7226,32 +7222,32 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7263,32 +7259,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7315,12 +7311,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7352,12 +7348,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7389,12 +7385,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7426,12 +7422,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7463,12 +7459,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7500,12 +7496,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7537,12 +7533,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7574,12 +7570,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7616,7 +7612,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7648,12 +7644,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7685,12 +7681,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7722,12 +7718,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7759,12 +7755,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7796,12 +7792,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7833,12 +7829,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>NANCI</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7870,12 +7866,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>REGINA</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7907,12 +7903,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>ROMILDA</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7944,20 +7940,168 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8224,13 +8368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7166A4C7-4608-4D95-B91C-4BE5B2325BD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A8198E-8ECC-441C-B448-5DAA0B213DA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C56D5392-BEAE-447A-B4C6-101D65290AC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC65EDF4-EB97-45F1-8B97-7462D47188E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87F9134-F026-4B47-BF13-58BF8410F2BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71E59C6-37D6-49FB-8930-34895957C6F9}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8368,13 +8368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A8198E-8ECC-441C-B448-5DAA0B213DA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4DDDCD-AA15-4DB2-96C7-7600DD6C8B76}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC65EDF4-EB97-45F1-8B97-7462D47188E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32E4420-A2D5-45DA-8B2B-C270B4D2DF19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71E59C6-37D6-49FB-8930-34895957C6F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF8BC65-6611-4ECF-88E4-D85BB8D55810}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8368,13 +8368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4DDDCD-AA15-4DB2-96C7-7600DD6C8B76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A351A4F-E78C-4DE2-9C0D-C6AF660DA3C1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32E4420-A2D5-45DA-8B2B-C270B4D2DF19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ECD2AF-84CF-42AC-AD01-4B861DB195FE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF8BC65-6611-4ECF-88E4-D85BB8D55810}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFABDA2-6367-4252-9DB7-6114326E238A}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+          <t>AF14E2ECA5517720C86670A62C3904DA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1737,7 +1737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1789,19 +1789,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1811,7 +1807,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4B510245B4216AB5086C563FB12FB142</t>
+          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,14 +1837,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1868,10 +1864,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1881,7 +1881,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+          <t>4B510245B4216AB5086C563FB12FB142</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1933,19 +1933,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1970,12 +1966,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2007,12 +2003,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2029,7 +2025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2049,7 +2045,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2059,14 +2055,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2086,10 +2082,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2099,7 +2099,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2114,52 +2114,52 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2169,34 +2169,30 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2221,12 +2217,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2258,12 +2254,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2295,12 +2291,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2332,12 +2328,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2369,12 +2365,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2406,12 +2402,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2443,12 +2439,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2480,12 +2476,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2517,12 +2513,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2554,12 +2550,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2591,12 +2587,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2628,12 +2624,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2665,12 +2661,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2702,12 +2698,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2739,12 +2735,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2776,12 +2772,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2813,12 +2809,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2850,12 +2846,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2887,12 +2883,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2924,12 +2920,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2961,12 +2957,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2998,12 +2994,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3035,12 +3031,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3072,12 +3068,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3109,12 +3105,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3146,12 +3142,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3183,12 +3179,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3220,12 +3216,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3257,12 +3253,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3279,32 +3275,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3316,30 +3312,34 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3354,22 +3354,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3386,34 +3386,30 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3438,12 +3434,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3475,12 +3471,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3497,7 +3493,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3512,12 +3508,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3549,12 +3545,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3571,7 +3567,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3591,7 +3587,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3601,7 +3597,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3623,12 +3619,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3645,7 +3641,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3660,12 +3656,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3675,7 +3671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3693,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3724,22 +3720,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3761,22 +3757,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3793,12 +3789,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3808,15 +3804,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>70A9ADEC12B287873D1AD48D0C547221</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -3966,32 +3966,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4003,34 +4003,30 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4055,12 +4051,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4092,12 +4088,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4129,12 +4125,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4166,12 +4162,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4203,12 +4199,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4240,12 +4236,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4277,12 +4273,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4314,12 +4310,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4351,12 +4347,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4388,12 +4384,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4425,12 +4421,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4462,12 +4458,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4499,12 +4495,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4536,12 +4532,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4573,12 +4569,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4610,12 +4606,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4647,12 +4643,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4684,12 +4680,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4721,12 +4717,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4758,12 +4754,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4795,12 +4791,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4832,12 +4828,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4869,12 +4865,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4906,12 +4902,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4943,12 +4939,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4980,12 +4976,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5017,12 +5013,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5054,12 +5050,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5091,12 +5087,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5128,12 +5124,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5165,12 +5161,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5202,12 +5198,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5239,12 +5235,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5276,12 +5272,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5313,12 +5309,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5350,12 +5346,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5387,12 +5383,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5424,12 +5420,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5461,12 +5457,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5498,12 +5494,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5535,12 +5531,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5572,12 +5568,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5609,12 +5605,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5646,12 +5642,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5683,12 +5679,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5720,12 +5716,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5757,12 +5753,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5794,12 +5790,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5831,12 +5827,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5868,12 +5864,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5905,12 +5901,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5942,12 +5938,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5979,12 +5975,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6016,12 +6012,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6053,12 +6049,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6090,12 +6086,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6127,12 +6123,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6164,12 +6160,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6201,12 +6197,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6238,12 +6234,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6275,12 +6271,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6312,12 +6308,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6349,12 +6345,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6386,12 +6382,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6423,12 +6419,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6460,12 +6456,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6497,12 +6493,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6534,12 +6530,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6571,12 +6567,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6608,12 +6604,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6645,12 +6641,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6682,12 +6678,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6719,12 +6715,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6756,12 +6752,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6793,12 +6789,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6830,12 +6826,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6867,12 +6863,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6904,12 +6900,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6946,7 +6942,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6978,12 +6974,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7015,12 +7011,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7052,12 +7048,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7089,12 +7085,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7126,12 +7122,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7163,12 +7159,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7200,12 +7196,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7222,32 +7218,32 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7259,32 +7255,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7296,32 +7292,32 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7333,32 +7329,32 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7385,12 +7381,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7422,12 +7418,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7459,12 +7455,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7496,12 +7492,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7533,12 +7529,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7570,12 +7566,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7607,12 +7603,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7644,12 +7640,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7686,7 +7682,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7723,7 +7719,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7760,7 +7756,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7792,12 +7788,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7829,12 +7825,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7866,12 +7862,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7903,12 +7899,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>NANCI</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7940,12 +7936,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>REGINA</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7977,12 +7973,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>ROMILDA</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8014,12 +8010,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8051,12 +8047,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>TAILSA</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8093,15 +8089,89 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8368,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A351A4F-E78C-4DE2-9C0D-C6AF660DA3C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BD00BA-3165-4A9A-9787-F4C26DDCC4C5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ECD2AF-84CF-42AC-AD01-4B861DB195FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DBA3FA-FDCD-4C25-A055-2A4441B1E90C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFABDA2-6367-4252-9DB7-6114326E238A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819B53A1-18B8-415B-BB27-A78A83B06AB1}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BD00BA-3165-4A9A-9787-F4C26DDCC4C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B24925-2130-4CC7-A9E5-8E20188C6852}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DBA3FA-FDCD-4C25-A055-2A4441B1E90C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7C7B21-E2CA-4A8F-AAA1-CFDDC09667B3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819B53A1-18B8-415B-BB27-A78A83B06AB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{096B45D6-2C84-4F75-91D5-8868DD96C14F}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B24925-2130-4CC7-A9E5-8E20188C6852}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7C43AE0-E06D-4651-837C-FA13AEFDF5E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7C7B21-E2CA-4A8F-AAA1-CFDDC09667B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7CEAB17-BE39-42A4-81BC-6ED2F3201DEB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{096B45D6-2C84-4F75-91D5-8868DD96C14F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7357FB27-FA90-4A8E-A7C5-D47402D98818}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7C43AE0-E06D-4651-837C-FA13AEFDF5E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A52F69-598A-4994-B268-96B99D297114}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7CEAB17-BE39-42A4-81BC-6ED2F3201DEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4C147F-2BE2-49A1-90E9-B853978B410E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7357FB27-FA90-4A8E-A7C5-D47402D98818}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE51ECD2-8CF6-45A3-9FA5-AFD7D1770B63}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A52F69-598A-4994-B268-96B99D297114}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9829929A-15FC-4124-8C8A-8FD233049C17}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4C147F-2BE2-49A1-90E9-B853978B410E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE1C664-233B-4222-B1CB-9F45B0525AC6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE51ECD2-8CF6-45A3-9FA5-AFD7D1770B63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18B358C-ABF1-4D30-95B0-36F4FE13FA19}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9829929A-15FC-4124-8C8A-8FD233049C17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F143AA4-2966-4CFF-AF7F-1C63CCC0B07C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE1C664-233B-4222-B1CB-9F45B0525AC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F266BA5-851E-46E3-933D-926C30101928}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18B358C-ABF1-4D30-95B0-36F4FE13FA19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120532DB-DC97-4C01-920E-09E57CAC95A1}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F143AA4-2966-4CFF-AF7F-1C63CCC0B07C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AE27BA-6638-4686-BA97-22145945CCB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F266BA5-851E-46E3-933D-926C30101928}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{089BFFE0-8F43-41E6-8D54-F5272E51A355}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120532DB-DC97-4C01-920E-09E57CAC95A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676E5592-F25F-4CDB-BE1A-1CACFD92D5BA}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AE27BA-6638-4686-BA97-22145945CCB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{290782B7-6A56-4026-980E-656554C1110D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{089BFFE0-8F43-41E6-8D54-F5272E51A355}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC9B86FF-D7EC-4277-9D5B-092F93094509}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676E5592-F25F-4CDB-BE1A-1CACFD92D5BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D34C6DBE-A99F-4825-844C-B74EF9B93CF8}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{290782B7-6A56-4026-980E-656554C1110D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F3F379-D9F8-4FCB-B1A5-F9AC0DF60418}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC9B86FF-D7EC-4277-9D5B-092F93094509}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38FFAC6A-A102-4866-B8F0-0FA53B17CDDE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D34C6DBE-A99F-4825-844C-B74EF9B93CF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A76CA32-3B7D-440E-BAD0-1E730EB6D70D}"/>
 </file>
--- a/contPGT.xlsx
+++ b/contPGT.xlsx
@@ -8438,13 +8438,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F3F379-D9F8-4FCB-B1A5-F9AC0DF60418}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A05C52C-7D9D-42D0-A125-8BC83E2C47E0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38FFAC6A-A102-4866-B8F0-0FA53B17CDDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37BD57F6-027E-495D-837F-13976FDE58A9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A76CA32-3B7D-440E-BAD0-1E730EB6D70D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FEAA85B-3FEF-48F0-A500-7E44938EDA80}"/>
 </file>